--- a/data/TSLA_financial_data.xlsx
+++ b/data/TSLA_financial_data.xlsx
@@ -1286,7 +1286,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3482750000</v>
+        <v>3485000000</v>
       </c>
       <c r="C20">
         <v>3475000000</v>
@@ -1295,7 +1295,7 @@
         <v>3386000000</v>
       </c>
       <c r="E20">
-        <v>2880000000</v>
+        <v>3249000000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1303,7 +1303,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3173500000</v>
+        <v>3174000000</v>
       </c>
       <c r="C21">
         <v>3130000000</v>
@@ -1312,7 +1312,7 @@
         <v>2959000000</v>
       </c>
       <c r="E21">
-        <v>2880000000</v>
+        <v>2799000000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1320,7 +1320,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="C22">
         <v>3.62</v>
@@ -1337,7 +1337,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.725697</v>
+        <v>4.73</v>
       </c>
       <c r="C23">
         <v>4.02</v>
